--- a/CBL_Merchandising/CBL_Merchandising.xlsx
+++ b/CBL_Merchandising/CBL_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B196A1B-57F9-426C-B57E-72E6CE00F153}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA1EA6-ABE6-4B50-88E6-F5EEFCF95365}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="131">
   <si>
     <t>Update Profile</t>
   </si>
@@ -38,30 +38,18 @@
     <t>Refresh Products</t>
   </si>
   <si>
-    <t>Refresh Planogram</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
     <t>Export Data</t>
   </si>
   <si>
-    <t>Abnormal Shops</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
-    <t>RedFlag Shops</t>
-  </si>
-  <si>
     <t>Out Of Route</t>
   </si>
   <si>
-    <t>Merchandiser Scores</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>Take Post Secondary Picture</t>
   </si>
   <si>
-    <t>Already Deployment</t>
-  </si>
-  <si>
     <t>Tposm Not Available</t>
   </si>
   <si>
@@ -423,6 +408,15 @@
   </si>
   <si>
     <t>Already Deployed</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Edit TPOSM</t>
   </si>
 </sst>
 </file>
@@ -598,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -628,6 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,394 +989,394 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1412,36 +1407,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1470,7 +1465,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1504,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,37 +1514,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,45 +1579,45 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1">
         <v>226</v>
@@ -1625,117 +1625,117 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18">
         <v>12</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E8" s="18">
         <v>10</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G8" s="18">
         <v>145</v>
@@ -1743,58 +1743,58 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="18">
         <v>21</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18">
         <v>31</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="18">
         <v>41</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G11" s="18"/>
     </row>
@@ -1805,11 +1805,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC505BDA-4272-4758-9DA2-F72D83B99B5B}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1844,47 +1844,37 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1907,27 +1897,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1931,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,44 +1944,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +1994,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,57 +2006,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2091,79 +2081,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2166,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,37 +2176,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CBL_Merchandising/CBL_Merchandising.xlsx
+++ b/CBL_Merchandising/CBL_Merchandising.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA1EA6-ABE6-4B50-88E6-F5EEFCF95365}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB79281-1B71-4629-BAEC-00DA1C2881C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="925" firstSheet="1" activeTab="2" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Brands Products" sheetId="16" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,16 +1451,16 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1480,16 +1480,16 @@
         <v>20</v>
       </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
         <v>10</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G11" s="18"/>
     </row>
